--- a/data/handle_role.xlsx
+++ b/data/handle_role.xlsx
@@ -9,15 +9,15 @@
   <sheets>
     <sheet name="getlist" sheetId="1" r:id="rId1"/>
     <sheet name="addrole" sheetId="2" r:id="rId2"/>
-    <sheet name="editrole" sheetId="3" r:id="rId3"/>
-    <sheet name="deletedrole" sheetId="4" r:id="rId4"/>
+    <sheet name="deletedrole" sheetId="4" r:id="rId3"/>
+    <sheet name="authgrant" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="38">
   <si>
     <t>case_id</t>
   </si>
@@ -80,6 +80,57 @@
   </si>
   <si>
     <t>{"current":1,"size":20}</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>角色新增成功</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/api/lingxi-system/role/submit</t>
+  </si>
+  <si>
+    <t>新增角色失败-id为空</t>
+  </si>
+  <si>
+    <t>新增角色失败-isDeleted为空</t>
+  </si>
+  <si>
+    <t>新增角色失败-pid为空</t>
+  </si>
+  <si>
+    <t>新增角色失败-roleAlias为空</t>
+  </si>
+  <si>
+    <t>新增角色失败-sort为空</t>
+  </si>
+  <si>
+    <t>新增角色失败-roleName为空</t>
+  </si>
+  <si>
+    <t>新增角色失败-tenantId为空</t>
+  </si>
+  <si>
+    <t>新增角色失败-id非int</t>
+  </si>
+  <si>
+    <t>新增角色失败-isD非int</t>
+  </si>
+  <si>
+    <t>新增角色失败-Alias非str</t>
+  </si>
+  <si>
+    <t>新增角色失败-Name非str</t>
+  </si>
+  <si>
+    <t>新增角色失败-sort非int</t>
+  </si>
+  <si>
+    <t>新增角色失败-tid非str</t>
   </si>
 </sst>
 </file>
@@ -87,12 +138,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +153,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -125,6 +169,106 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,107 +281,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,13 +301,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -273,181 +317,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,21 +521,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -502,6 +531,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,16 +583,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -578,157 +622,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1080,7 +1130,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1120,13 +1170,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1135,10 +1185,10 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1146,13 +1196,13 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1161,10 +1211,10 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1172,13 +1222,13 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1187,10 +1237,10 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1198,7 +1248,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1213,10 +1263,10 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1236,14 +1286,334 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="8.44036697247706" customWidth="1"/>
+    <col min="2" max="2" width="10.5504587155963" customWidth="1"/>
+    <col min="3" max="3" width="29.6605504587156" customWidth="1"/>
+    <col min="4" max="4" width="7.44036697247706" customWidth="1"/>
+    <col min="5" max="5" width="34.1009174311927" customWidth="1"/>
+    <col min="6" max="6" width="5.44036697247706" customWidth="1"/>
+    <col min="7" max="7" width="9.44036697247706" customWidth="1"/>
+    <col min="8" max="8" width="7.44036697247706" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="interface"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1253,16 +1623,48 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="8.88073394495413" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="10.5504587155963" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="interface"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1270,14 +1672,47 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88073394495413" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88073394495413" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="10.5504587155963" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="interface"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
